--- a/frontend/web/files/Формат_добавления_лотов_в_залоговое_иммущество_ei.ru.xlsx
+++ b/frontend/web/files/Формат_добавления_лотов_в_залоговое_иммущество_ei.ru.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AAA83-74B5-48EF-B699-3FDFF569ADCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AAA83-74B5-48EF-B699-3FDFF569ADCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лоты" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ID лота</t>
   </si>
@@ -83,6 +91,15 @@
     <t>Дополнительные условия и критерии определения победителя</t>
   </si>
   <si>
+    <t>Период действия текущей цены аукциона (для торговой процедуры в форме аукциона «на повышение»)</t>
+  </si>
+  <si>
+    <t>Основание проведения торгов</t>
+  </si>
+  <si>
+    <t>Даты и времени проведения аукциона</t>
+  </si>
+  <si>
     <t>Строковое значение</t>
   </si>
   <si>
@@ -90,83 +107,6 @@
   </si>
   <si>
     <t>Текстовое значение без ограничении</t>
-  </si>
-  <si>
-    <t>Целое число</t>
-  </si>
-  <si>
-    <t>Строковое значени (не более 100 символов)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Строковое значени (не более 30 символов). Пример: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Аукцион"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> или </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Публичное предложение"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Числловое значение с плавающей запятой. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Обязательно без пробелов и любых других символов кроме зяпятой или точки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Период действия текущей цены аукциона (для торговой процедуры в форме аукциона «на повышение»)</t>
   </si>
   <si>
     <r>
@@ -207,7 +147,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Формат даты не менять! Все в едином стиле. Без точек и других любых символов. </t>
+      <t>Числловое значение с плавающей запятой. (</t>
     </r>
     <r>
       <rPr>
@@ -219,8 +159,31 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Пример: ГГГГ-ММ-ДД чч:мм:сс)</t>
+      <t>Обязательно без пробелов и любых других символов кроме зяпятой или точки</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Целое число</t>
+  </si>
+  <si>
+    <t>Строковое значени (не более 100 символов)</t>
+  </si>
+  <si>
+    <t>Строковое значени (не более 30 символов). Пример: "Аукцион" или "Публичное предложение"</t>
+  </si>
+  <si>
+    <t>Формат даты не менять! Все в едином стиле. Без точек и других любых символов. (Пример: ГГГГ-ММ-ДД чч:мм:сс)</t>
   </si>
 </sst>
 </file>
@@ -230,9 +193,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +262,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -324,51 +299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -383,50 +313,123 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,12 +438,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,7 +467,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,18 +476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,13 +485,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,13 +506,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -520,57 +524,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,442 +889,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="31" style="10" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="31" style="38" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="31" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="31" style="45" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="41" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" style="42" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="60">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" s="19" customFormat="1" ht="66" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" s="23" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="K2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="N2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="21"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="22"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="22"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
